--- a/ExcelParser/Orders/второй.xlsx
+++ b/ExcelParser/Orders/второй.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="540" windowWidth="20775" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Стена 1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Стена 2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Стена 3" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Стена 4" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="ДСП" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Фасады" state="visible" r:id="rId9"/>
+    <sheet name="Стена 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Стена 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Стена 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Стена 4" sheetId="4" r:id="rId4"/>
+    <sheet name="ДСП" sheetId="5" r:id="rId5"/>
+    <sheet name="Фасады" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -228,14 +232,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,8 +251,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ff9a9a"/>
-        <bgColor rgb="ff9a9a"/>
+        <fgColor rgb="FFFF9A9A"/>
+        <bgColor rgb="FFFF9A9A"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,7 +290,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -296,10 +300,10 @@
     <xdr:ext cx="18288000" cy="9182100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="0" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -330,7 +334,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -340,10 +344,10 @@
     <xdr:ext cx="18288000" cy="9182100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="0" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,7 +378,7 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -384,10 +388,10 @@
     <xdr:ext cx="18288000" cy="9182100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="0" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +422,7 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -428,10 +432,10 @@
     <xdr:ext cx="18288000" cy="9182100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="0" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,75 +785,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J115"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -857,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -889,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>1</v>
       </c>
@@ -903,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -935,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -967,7 +986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +1082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1173,7 +1192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1205,7 +1224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1365,7 +1384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1411,7 +1430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1475,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1667,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +1732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1809,7 +1828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +2002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2093,7 +2112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2157,7 +2176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2221,7 +2240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2235,7 +2254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2331,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2363,7 +2382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>8</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2409,7 +2428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>9</v>
       </c>
@@ -2583,7 +2602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2711,7 +2730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -2743,7 +2762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2775,7 +2794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2807,7 +2826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>10</v>
       </c>
@@ -2821,7 +2840,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2885,7 +2904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -2917,7 +2936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2949,7 +2968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +3000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3013,7 +3032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -3045,7 +3064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>11</v>
       </c>
@@ -3059,7 +3078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -3123,7 +3142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -3155,7 +3174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -3251,7 +3270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3283,7 +3302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>12</v>
       </c>
@@ -3297,7 +3316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3329,7 +3348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3361,7 +3380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3393,7 +3412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3457,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3521,7 +3540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>13</v>
       </c>
@@ -3535,7 +3554,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3567,7 +3586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -3599,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3631,7 +3650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3663,7 +3682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -3697,16 +3716,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3741,7 +3763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3755,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3790,7 +3812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3804,7 +3826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3839,7 +3861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3853,7 +3875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3888,7 +3910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3902,7 +3924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3937,7 +3959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>5</v>
       </c>
@@ -3951,7 +3973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3965,7 +3987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4000,7 +4022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>7</v>
       </c>
@@ -4014,7 +4036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4049,7 +4071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>8</v>
       </c>
@@ -4063,7 +4085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4098,7 +4120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>9</v>
       </c>
@@ -4112,7 +4134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4147,7 +4169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>10</v>
       </c>
@@ -4161,7 +4183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4196,7 +4218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>11</v>
       </c>
@@ -4210,7 +4232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -4245,7 +4267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>12</v>
       </c>
@@ -4259,7 +4281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>13</v>
       </c>
@@ -4273,7 +4295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -4310,6 +4332,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>